--- a/scenario_lab_A.xlsx
+++ b/scenario_lab_A.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_1F7074E6F54BE43D643C6D62BFB125B43F0E41AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B641F82-678D-49D4-9A2E-719DDC8719EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="10080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DemandAndConversions" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="LayerHerd" sheetId="6" r:id="rId6"/>
     <sheet name="WasteAndCircularity" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191028" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,6 +156,12 @@
     <t>f_crop_group:crop</t>
   </si>
   <si>
+    <t>default values (avg.)</t>
+  </si>
+  <si>
+    <t>kg/ha</t>
+  </si>
+  <si>
     <t>Cereals, winter</t>
   </si>
   <si>
@@ -179,6 +186,9 @@
     <t>Ley</t>
   </si>
   <si>
+    <t>kg dm/ha</t>
+  </si>
+  <si>
     <t>Vegetables</t>
   </si>
   <si>
@@ -191,9 +201,30 @@
     <t>Vegetables, greenhouse</t>
   </si>
   <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
     <t>Berries, greenhouse</t>
   </si>
   <si>
+    <t>Green manure</t>
+  </si>
+  <si>
+    <t>min_in_rot</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>This parameter controls the minimum share of cropland that must be</t>
+  </si>
+  <si>
+    <t>devoted to N-fixing green manures in each region</t>
+  </si>
+  <si>
     <t>f_animal</t>
   </si>
   <si>
@@ -203,6 +234,9 @@
     <t>milk_prod</t>
   </si>
   <si>
+    <t>kg/cow/year</t>
+  </si>
+  <si>
     <t>Here the milk productivity (kg/cow/year) can be changed as well as the</t>
   </si>
   <si>
@@ -221,6 +255,9 @@
     <t>slaughter_weight</t>
   </si>
   <si>
+    <t>kg c.w.</t>
+  </si>
+  <si>
     <t>kg meat due to lower share of energy needed for maintenence.</t>
   </si>
   <si>
@@ -242,6 +279,9 @@
     <t>Here slaughter weight (kg CW) of pigs can be changed. A higher slaughter</t>
   </si>
   <si>
+    <t>kg feed/kg live weight gain</t>
+  </si>
+  <si>
     <t>broilers</t>
   </si>
   <si>
@@ -255,6 +295,9 @@
   </si>
   <si>
     <t>poultry meat produced</t>
+  </si>
+  <si>
+    <t>kg/hen/year</t>
   </si>
   <si>
     <t>egg_production</t>
@@ -333,58 +376,16 @@
   <si>
     <t>food waste, processing</t>
   </si>
-  <si>
-    <t>Green manure</t>
-  </si>
-  <si>
-    <t>min_in_rot</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>This parameter controls the minimum share of cropland that must be</t>
-  </si>
-  <si>
-    <t>devoted to N-fixing green manures in each region</t>
-  </si>
-  <si>
-    <t>default values (avg.)</t>
-  </si>
-  <si>
-    <t>kg/ha</t>
-  </si>
-  <si>
-    <t>kg/m2</t>
-  </si>
-  <si>
-    <t>kg dm/ha</t>
-  </si>
-  <si>
-    <t>kg c.w.</t>
-  </si>
-  <si>
-    <t>kg/cow/year</t>
-  </si>
-  <si>
-    <t>kg/hen/year</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>kg feed/kg live weight gain</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -507,18 +508,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -809,21 +806,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -877,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -896,7 +893,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N3" s="10">
         <v>133.1</v>
@@ -905,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -924,7 +921,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="10">
         <v>133.4</v>
@@ -933,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -952,7 +949,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="10">
         <v>6.1</v>
@@ -961,7 +958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -980,13 +977,13 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N6" s="10">
         <v>29.2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1021,7 +1018,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="10">
         <v>146.6</v>
@@ -1030,7 +1027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1049,13 +1046,13 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="10">
         <v>29.4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1065,7 @@
       <c r="L10" s="8"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1087,13 +1084,13 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N11" s="10">
         <v>90.3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1112,13 +1109,13 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N12" s="10">
         <v>207.7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1128,7 @@
       <c r="L13" s="8"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1150,13 +1147,13 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N14" s="10">
         <v>334.9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1175,13 +1172,13 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N15" s="10">
         <v>30.9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1200,13 +1197,13 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="N16" s="10">
         <v>60.6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1225,13 +1222,13 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="10">
         <v>39.9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1250,13 +1247,13 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N18" s="10">
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1275,16 +1272,16 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N19" s="10">
         <v>49.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="6"/>
     </row>
   </sheetData>
@@ -1295,21 +1292,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1341,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1356,15 +1353,15 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="L2" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -1380,19 +1377,19 @@
       <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>6915.2247850000003</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1408,16 +1405,16 @@
       <c r="J4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>4641.2983690000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -1431,21 +1428,21 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="L5" s="18">
+        <v>3</v>
+      </c>
+      <c r="L5" s="17">
         <v>3338.21137</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1459,21 +1456,21 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6" s="18">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17">
         <v>3301.9742179999998</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1487,18 +1484,18 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18">
+        <v>2</v>
+      </c>
+      <c r="L7" s="17">
         <v>38501.085951000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1514,19 +1511,19 @@
       <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>4960.5618260000001</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -1540,19 +1537,19 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="18">
+        <v>3</v>
+      </c>
+      <c r="L9" s="17">
         <v>30792.637392000001</v>
       </c>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1568,17 +1565,17 @@
       <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>6024.6128529999996</v>
       </c>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -1592,19 +1589,19 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="L11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="17">
         <v>16037.315522000001</v>
       </c>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -1618,21 +1615,21 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="L12" s="17">
         <v>38.250456999999997</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1646,49 +1643,49 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="18">
         <v>3.1608179999999999</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15">
-        <v>0</v>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="9">
+        <v>3</v>
       </c>
       <c r="L15" s="10">
         <v>0</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>104</v>
+      <c r="M15" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="N16" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1699,23 +1696,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1745,12 +1742,12 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -1761,9 +1758,9 @@
       <c r="J2" s="10"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -1777,20 +1774,20 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="L3" s="17">
         <v>8819.5001499999998</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="17"/>
+      <c r="M3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="16"/>
       <c r="O3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -1798,12 +1795,12 @@
       <c r="H4" s="10"/>
       <c r="I4" s="8"/>
       <c r="O4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -1813,15 +1810,15 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="O5" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1835,25 +1832,25 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="21">
         <v>305.63752899999997</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6" s="17"/>
+      <c r="M6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="16"/>
       <c r="O6" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1867,22 +1864,22 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="21">
         <v>330.03043400000001</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1896,20 +1893,20 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="L8" s="21">
         <v>340.58024699999999</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="17"/>
+      <c r="M8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="16"/>
       <c r="O8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1921,7 +1918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1930,7 +1927,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1939,12 +1936,12 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -1975,18 +1972,18 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2017,15 +2014,15 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2056,7 +2053,7 @@
       </c>
       <c r="J14" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -2066,23 +2063,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2112,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2127,15 +2124,15 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="L2" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -2149,31 +2146,31 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L3" s="8">
         <v>91.809441000000007</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="N4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="N5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="N7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="N8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2185,14 +2182,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2200,9 +2197,9 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2232,10 +2229,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2247,15 +2244,15 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="L2" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -2275,25 +2272,25 @@
         <v>1.52</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="N4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="N5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="N7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="N8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2305,21 +2302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2348,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
@@ -2362,12 +2359,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="K2" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -2381,21 +2378,21 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="8">
         <v>18.047626000000001</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="M5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2407,14 +2404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2422,12 +2419,12 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2442,41 +2439,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E2" s="10">
         <v>40</v>
       </c>
       <c r="F2" s="14">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
@@ -2486,41 +2483,41 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E4" s="10">
         <v>50</v>
       </c>
       <c r="F4" s="14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E5" s="10">
         <v>5</v>
@@ -2529,49 +2526,49 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="E6" s="10"/>
       <c r="F6" s="14"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E7" s="10">
         <v>40</v>
       </c>
       <c r="F7" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E8" s="10">
         <v>5</v>
@@ -2580,44 +2577,44 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E9" s="10">
         <v>50</v>
       </c>
       <c r="F9" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E10" s="10">
         <v>5</v>
@@ -2626,42 +2623,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="E11" s="10"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E12" s="10">
         <v>40</v>
       </c>
       <c r="F12" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E13" s="10">
         <v>5</v>
@@ -2670,38 +2667,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E14" s="10">
         <v>50</v>
       </c>
       <c r="F14" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E15" s="10">
         <v>5</v>
@@ -2714,4 +2711,175 @@
   <sheetProtection algorithmName="SHA-512" hashValue="j1oF1XhmffHH4iZFnMTdYQwyY/Bd1F5s5mYW8OGXd8eZHJXs+uizlaNFDN4t5ai+LKG1T18SM+4z2bRhzobywA==" saltValue="Ucsjuu9g9+JofJigaVZLBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x01010017DA9F26C8271C4C8C5445BECDB8F407" ma:contentTypeVersion="4" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="99b59844cce55d2b3034ca90a06f2320">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4cc52fd1-4084-4967-b238-cfd41d19cde4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f1f4f72ceb71dbbfc88b63b54e8f9b4" ns2:_="">
+    <xsd:import namespace="4cc52fd1-4084-4967-b238-cfd41d19cde4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4cc52fd1-4084-4967-b238-cfd41d19cde4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EAD482-3EC4-4A95-B0AF-50F701827161}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE5E517-89D0-47F1-B2BF-DDB23DEA475A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE47F97-8A5D-4A52-A395-06BB0BFD9EE2}"/>
 </file>